--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tshb-Tshr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tshb-Tshr.xlsx
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.383692666666667</v>
+        <v>3.122031999999999</v>
       </c>
       <c r="H2">
-        <v>13.151078</v>
+        <v>9.366095999999999</v>
       </c>
       <c r="I2">
-        <v>0.8262491989495244</v>
+        <v>0.9072482346569729</v>
       </c>
       <c r="J2">
-        <v>0.8705526185731177</v>
+        <v>0.9226779927201196</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.1853783333333333</v>
+        <v>0.1744923333333333</v>
       </c>
       <c r="N2">
-        <v>0.5561349999999999</v>
+        <v>0.523477</v>
       </c>
       <c r="O2">
-        <v>0.05150040234182901</v>
+        <v>0.07822917822503123</v>
       </c>
       <c r="P2">
-        <v>0.06174910743679609</v>
+        <v>0.08239975633156223</v>
       </c>
       <c r="Q2">
-        <v>0.8126416403922221</v>
+        <v>0.5447706484213333</v>
       </c>
       <c r="R2">
-        <v>7.313774763529999</v>
+        <v>4.902935835791999</v>
       </c>
       <c r="S2">
-        <v>0.04255216618051443</v>
+        <v>0.07097328384332528</v>
       </c>
       <c r="T2">
-        <v>0.05375584717365561</v>
+        <v>0.07602844177263281</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.383692666666667</v>
+        <v>3.122031999999999</v>
       </c>
       <c r="H3">
-        <v>13.151078</v>
+        <v>9.366095999999999</v>
       </c>
       <c r="I3">
-        <v>0.8262491989495244</v>
+        <v>0.9072482346569729</v>
       </c>
       <c r="J3">
-        <v>0.8705526185731177</v>
+        <v>0.9226779927201196</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>3.630605</v>
       </c>
       <c r="O3">
-        <v>0.3362090468038446</v>
+        <v>0.5425629886502931</v>
       </c>
       <c r="P3">
-        <v>0.4031154633417589</v>
+        <v>0.5714882742434749</v>
       </c>
       <c r="Q3">
-        <v>5.305152171354444</v>
+        <v>3.778288329786666</v>
       </c>
       <c r="R3">
-        <v>47.74636954219</v>
+        <v>34.00459496808</v>
       </c>
       <c r="S3">
-        <v>0.2777924556012598</v>
+        <v>0.4922393136431896</v>
       </c>
       <c r="T3">
-        <v>0.3509332221994839</v>
+        <v>0.5272996537420547</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.383692666666667</v>
+        <v>3.122031999999999</v>
       </c>
       <c r="H4">
-        <v>13.151078</v>
+        <v>9.366095999999999</v>
       </c>
       <c r="I4">
-        <v>0.8262491989495244</v>
+        <v>0.9072482346569729</v>
       </c>
       <c r="J4">
-        <v>0.8705526185731177</v>
+        <v>0.9226779927201196</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +682,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.167083</v>
+        <v>0.1427166666666667</v>
       </c>
       <c r="N4">
-        <v>0.5012489999999999</v>
+        <v>0.42815</v>
       </c>
       <c r="O4">
-        <v>0.04641773161811331</v>
+        <v>0.06398337015197826</v>
       </c>
       <c r="P4">
-        <v>0.05565497289972147</v>
+        <v>0.06739447133944447</v>
       </c>
       <c r="Q4">
-        <v>0.7324405218246666</v>
+        <v>0.4455660002666667</v>
       </c>
       <c r="R4">
-        <v>6.591964696421999</v>
+        <v>4.0100940024</v>
       </c>
       <c r="S4">
-        <v>0.03835261356652014</v>
+        <v>0.05804879961778593</v>
       </c>
       <c r="T4">
-        <v>0.04845058239446844</v>
+        <v>0.06218339553591225</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.383692666666667</v>
+        <v>3.122031999999999</v>
       </c>
       <c r="H5">
-        <v>13.151078</v>
+        <v>9.366095999999999</v>
       </c>
       <c r="I5">
-        <v>0.8262491989495244</v>
+        <v>0.9072482346569729</v>
       </c>
       <c r="J5">
-        <v>0.8705526185731177</v>
+        <v>0.9226779927201196</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.7922885</v>
+        <v>0.3386875</v>
       </c>
       <c r="N5">
-        <v>3.584577</v>
+        <v>0.6773750000000001</v>
       </c>
       <c r="O5">
-        <v>0.4979199953031181</v>
+        <v>0.15184188493529</v>
       </c>
       <c r="P5">
-        <v>0.3980048554550032</v>
+        <v>0.1066246175956001</v>
       </c>
       <c r="Q5">
-        <v>7.856841954001</v>
+        <v>1.057393213</v>
       </c>
       <c r="R5">
-        <v>47.141051724006</v>
+        <v>6.344359278</v>
       </c>
       <c r="S5">
-        <v>0.4114059972601523</v>
+        <v>0.1377582820545291</v>
       </c>
       <c r="T5">
-        <v>0.3464841691211683</v>
+        <v>0.09838018813765868</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.383692666666667</v>
+        <v>3.122031999999999</v>
       </c>
       <c r="H6">
-        <v>13.151078</v>
+        <v>9.366095999999999</v>
       </c>
       <c r="I6">
-        <v>0.8262491989495244</v>
+        <v>0.9072482346569729</v>
       </c>
       <c r="J6">
-        <v>0.8705526185731177</v>
+        <v>0.9226779927201196</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.2445996666666667</v>
+        <v>0.3644293333333333</v>
       </c>
       <c r="N6">
-        <v>0.7337990000000001</v>
+        <v>1.093288</v>
       </c>
       <c r="O6">
-        <v>0.06795282393309501</v>
+        <v>0.1633825780374074</v>
       </c>
       <c r="P6">
-        <v>0.08147560086672039</v>
+        <v>0.1720928804899184</v>
       </c>
       <c r="Q6">
-        <v>1.072249765035778</v>
+        <v>1.137760040405333</v>
       </c>
       <c r="R6">
-        <v>9.650247885322001</v>
+        <v>10.239840363648</v>
       </c>
       <c r="S6">
-        <v>0.05614596634107782</v>
+        <v>0.148228555498143</v>
       </c>
       <c r="T6">
-        <v>0.07092879768434161</v>
+        <v>0.1587863135318613</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,40 +856,40 @@
         <v>0.220252</v>
       </c>
       <c r="I7">
-        <v>0.01383787994923539</v>
+        <v>0.02133474162336876</v>
       </c>
       <c r="J7">
-        <v>0.0145798660266456</v>
+        <v>0.02169758597953638</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.1853783333333333</v>
+        <v>0.1744923333333333</v>
       </c>
       <c r="N7">
-        <v>0.5561349999999999</v>
+        <v>0.523477</v>
       </c>
       <c r="O7">
-        <v>0.05150040234182901</v>
+        <v>0.07822917822503123</v>
       </c>
       <c r="P7">
-        <v>0.06174910743679609</v>
+        <v>0.08239975633156223</v>
       </c>
       <c r="Q7">
-        <v>0.01360998289111111</v>
+        <v>0.01281076180044444</v>
       </c>
       <c r="R7">
-        <v>0.12248984602</v>
+        <v>0.115296856204</v>
       </c>
       <c r="S7">
-        <v>0.000712656384943551</v>
+        <v>0.001668999304839507</v>
       </c>
       <c r="T7">
-        <v>0.0009002937136934323</v>
+        <v>0.001787875797696919</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>0.220252</v>
       </c>
       <c r="I8">
-        <v>0.01383787994923539</v>
+        <v>0.02133474162336876</v>
       </c>
       <c r="J8">
-        <v>0.0145798660266456</v>
+        <v>0.02169758597953638</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>3.630605</v>
       </c>
       <c r="O8">
-        <v>0.3362090468038446</v>
+        <v>0.5425629886502931</v>
       </c>
       <c r="P8">
-        <v>0.4031154633417589</v>
+        <v>0.5714882742434749</v>
       </c>
       <c r="Q8">
         <v>0.08884977916222223</v>
@@ -948,10 +948,10 @@
         <v>0.7996480124600001</v>
       </c>
       <c r="S8">
-        <v>0.004652420427518464</v>
+        <v>0.01157544117725676</v>
       </c>
       <c r="T8">
-        <v>0.005877369448792009</v>
+        <v>0.01239991596669467</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>0.220252</v>
       </c>
       <c r="I9">
-        <v>0.01383787994923539</v>
+        <v>0.02133474162336876</v>
       </c>
       <c r="J9">
-        <v>0.0145798660266456</v>
+        <v>0.02169758597953638</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,28 +992,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.167083</v>
+        <v>0.1427166666666667</v>
       </c>
       <c r="N9">
-        <v>0.5012489999999999</v>
+        <v>0.42815</v>
       </c>
       <c r="O9">
-        <v>0.04641773161811331</v>
+        <v>0.06398337015197826</v>
       </c>
       <c r="P9">
-        <v>0.05565497289972147</v>
+        <v>0.06739447133944447</v>
       </c>
       <c r="Q9">
-        <v>0.01226678830533333</v>
+        <v>0.01047787708888889</v>
       </c>
       <c r="R9">
-        <v>0.110401094748</v>
+        <v>0.09430089380000001</v>
       </c>
       <c r="S9">
-        <v>0.0006423229976472799</v>
+        <v>0.001365068670384821</v>
       </c>
       <c r="T9">
-        <v>0.0008114420485945305</v>
+        <v>0.001462297336432997</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>0.220252</v>
       </c>
       <c r="I10">
-        <v>0.01383787994923539</v>
+        <v>0.02133474162336876</v>
       </c>
       <c r="J10">
-        <v>0.0145798660266456</v>
+        <v>0.02169758597953638</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.7922885</v>
+        <v>0.3386875</v>
       </c>
       <c r="N10">
-        <v>3.584577</v>
+        <v>0.6773750000000001</v>
       </c>
       <c r="O10">
-        <v>0.4979199953031181</v>
+        <v>0.15184188493529</v>
       </c>
       <c r="P10">
-        <v>0.3980048554550032</v>
+        <v>0.1066246175956001</v>
       </c>
       <c r="Q10">
-        <v>0.131585042234</v>
+        <v>0.02486553308333334</v>
       </c>
       <c r="R10">
-        <v>0.7895102534039999</v>
+        <v>0.1491931985</v>
       </c>
       <c r="S10">
-        <v>0.006890157119328399</v>
+        <v>0.003239507382699701</v>
       </c>
       <c r="T10">
-        <v>0.005802857470488394</v>
+        <v>0.002313496807815722</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>0.220252</v>
       </c>
       <c r="I11">
-        <v>0.01383787994923539</v>
+        <v>0.02133474162336876</v>
       </c>
       <c r="J11">
-        <v>0.0145798660266456</v>
+        <v>0.02169758597953638</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.2445996666666667</v>
+        <v>0.3644293333333333</v>
       </c>
       <c r="N11">
-        <v>0.7337990000000001</v>
+        <v>1.093288</v>
       </c>
       <c r="O11">
-        <v>0.06795282393309501</v>
+        <v>0.1633825780374074</v>
       </c>
       <c r="P11">
-        <v>0.08147560086672039</v>
+        <v>0.1720928804899184</v>
       </c>
       <c r="Q11">
-        <v>0.01795785526088889</v>
+        <v>0.02675542984177778</v>
       </c>
       <c r="R11">
-        <v>0.161620697348</v>
+        <v>0.240798868576</v>
       </c>
       <c r="S11">
-        <v>0.0009403230197976983</v>
+        <v>0.003485725088187971</v>
       </c>
       <c r="T11">
-        <v>0.001187903345077233</v>
+        <v>0.003734000070896084</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.04592</v>
+      </c>
+      <c r="H12">
+        <v>0.13776</v>
+      </c>
+      <c r="I12">
+        <v>0.01334414219183154</v>
+      </c>
+      <c r="J12">
+        <v>0.01357108877350005</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G12">
-        <v>0.02068766666666667</v>
-      </c>
-      <c r="H12">
-        <v>0.062063</v>
-      </c>
-      <c r="I12">
-        <v>0.003899262405287562</v>
-      </c>
-      <c r="J12">
-        <v>0.004108340560865308</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
       <c r="M12">
-        <v>0.1853783333333333</v>
+        <v>0.1744923333333333</v>
       </c>
       <c r="N12">
-        <v>0.5561349999999999</v>
+        <v>0.523477</v>
       </c>
       <c r="O12">
-        <v>0.05150040234182901</v>
+        <v>0.07822917822503123</v>
       </c>
       <c r="P12">
-        <v>0.06174910743679609</v>
+        <v>0.08239975633156223</v>
       </c>
       <c r="Q12">
-        <v>0.003835045167222222</v>
+        <v>0.008012687946666666</v>
       </c>
       <c r="R12">
-        <v>0.034515406505</v>
+        <v>0.07211419152</v>
       </c>
       <c r="S12">
-        <v>0.0002008135827086774</v>
+        <v>0.001043901277784948</v>
       </c>
       <c r="T12">
-        <v>0.000253686362679819</v>
+        <v>0.001118254408090403</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.02068766666666667</v>
+        <v>0.04592</v>
       </c>
       <c r="H13">
-        <v>0.062063</v>
+        <v>0.13776</v>
       </c>
       <c r="I13">
-        <v>0.003899262405287562</v>
+        <v>0.01334414219183154</v>
       </c>
       <c r="J13">
-        <v>0.004108340560865308</v>
+        <v>0.01357108877350005</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>3.630605</v>
       </c>
       <c r="O13">
-        <v>0.3362090468038446</v>
+        <v>0.5425629886502931</v>
       </c>
       <c r="P13">
-        <v>0.4031154633417589</v>
+        <v>0.5714882742434749</v>
       </c>
       <c r="Q13">
-        <v>0.02503624867944444</v>
+        <v>0.05557246053333333</v>
       </c>
       <c r="R13">
-        <v>0.225326238115</v>
+        <v>0.5001521448</v>
       </c>
       <c r="S13">
-        <v>0.001310967296519798</v>
+        <v>0.007240037668574592</v>
       </c>
       <c r="T13">
-        <v>0.00165613560875896</v>
+        <v>0.007755718102772538</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.02068766666666667</v>
+        <v>0.04592</v>
       </c>
       <c r="H14">
-        <v>0.062063</v>
+        <v>0.13776</v>
       </c>
       <c r="I14">
-        <v>0.003899262405287562</v>
+        <v>0.01334414219183154</v>
       </c>
       <c r="J14">
-        <v>0.004108340560865308</v>
+        <v>0.01357108877350005</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1302,28 +1302,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.167083</v>
+        <v>0.1427166666666667</v>
       </c>
       <c r="N14">
-        <v>0.5012489999999999</v>
+        <v>0.42815</v>
       </c>
       <c r="O14">
-        <v>0.04641773161811331</v>
+        <v>0.06398337015197826</v>
       </c>
       <c r="P14">
-        <v>0.05565497289972147</v>
+        <v>0.06739447133944447</v>
       </c>
       <c r="Q14">
-        <v>0.003456557409666666</v>
+        <v>0.006553549333333334</v>
       </c>
       <c r="R14">
-        <v>0.031109016687</v>
+        <v>0.058981944</v>
       </c>
       <c r="S14">
-        <v>0.000180994915837237</v>
+        <v>0.0008538031892205879</v>
       </c>
       <c r="T14">
-        <v>0.0002286495825777852</v>
+        <v>0.0009146163533907054</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.02068766666666667</v>
+        <v>0.04592</v>
       </c>
       <c r="H15">
-        <v>0.062063</v>
+        <v>0.13776</v>
       </c>
       <c r="I15">
-        <v>0.003899262405287562</v>
+        <v>0.01334414219183154</v>
       </c>
       <c r="J15">
-        <v>0.004108340560865308</v>
+        <v>0.01357108877350005</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.7922885</v>
+        <v>0.3386875</v>
       </c>
       <c r="N15">
-        <v>3.584577</v>
+        <v>0.6773750000000001</v>
       </c>
       <c r="O15">
-        <v>0.4979199953031181</v>
+        <v>0.15184188493529</v>
       </c>
       <c r="P15">
-        <v>0.3980048554550032</v>
+        <v>0.1066246175956001</v>
       </c>
       <c r="Q15">
-        <v>0.0370782670585</v>
+        <v>0.01555253</v>
       </c>
       <c r="R15">
-        <v>0.222469602351</v>
+        <v>0.09331518</v>
       </c>
       <c r="S15">
-        <v>0.001941520718526408</v>
+        <v>0.002026199703252233</v>
       </c>
       <c r="T15">
-        <v>0.001635139491087124</v>
+        <v>0.001447012150830385</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.02068766666666667</v>
+        <v>0.04592</v>
       </c>
       <c r="H16">
-        <v>0.062063</v>
+        <v>0.13776</v>
       </c>
       <c r="I16">
-        <v>0.003899262405287562</v>
+        <v>0.01334414219183154</v>
       </c>
       <c r="J16">
-        <v>0.004108340560865308</v>
+        <v>0.01357108877350005</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.2445996666666667</v>
+        <v>0.3644293333333333</v>
       </c>
       <c r="N16">
-        <v>0.7337990000000001</v>
+        <v>1.093288</v>
       </c>
       <c r="O16">
-        <v>0.06795282393309501</v>
+        <v>0.1633825780374074</v>
       </c>
       <c r="P16">
-        <v>0.08147560086672039</v>
+        <v>0.1720928804899184</v>
       </c>
       <c r="Q16">
-        <v>0.005060196370777779</v>
+        <v>0.01673459498666666</v>
       </c>
       <c r="R16">
-        <v>0.04554176733700001</v>
+        <v>0.15061135488</v>
       </c>
       <c r="S16">
-        <v>0.0002649658916954422</v>
+        <v>0.002180200352999177</v>
       </c>
       <c r="T16">
-        <v>0.00033472951576162</v>
+        <v>0.002335487758416016</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,46 +1470,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.810014</v>
+        <v>0.17264</v>
       </c>
       <c r="H17">
-        <v>1.620028</v>
+        <v>0.34528</v>
       </c>
       <c r="I17">
-        <v>0.1526734352814043</v>
+        <v>0.05016839520901126</v>
       </c>
       <c r="J17">
-        <v>0.1072398488976927</v>
+        <v>0.0340144129770187</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.1853783333333333</v>
+        <v>0.1744923333333333</v>
       </c>
       <c r="N17">
-        <v>0.5561349999999999</v>
+        <v>0.523477</v>
       </c>
       <c r="O17">
-        <v>0.05150040234182901</v>
+        <v>0.07822917822503123</v>
       </c>
       <c r="P17">
-        <v>0.06174910743679609</v>
+        <v>0.08239975633156223</v>
       </c>
       <c r="Q17">
-        <v>0.1501590452966667</v>
+        <v>0.03012435642666667</v>
       </c>
       <c r="R17">
-        <v>0.9009542717799999</v>
+        <v>0.18074613856</v>
       </c>
       <c r="S17">
-        <v>0.007862743343901515</v>
+        <v>0.003924632330069545</v>
       </c>
       <c r="T17">
-        <v>0.006621964951089405</v>
+        <v>0.002802779341067469</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.810014</v>
+        <v>0.17264</v>
       </c>
       <c r="H18">
-        <v>1.620028</v>
+        <v>0.34528</v>
       </c>
       <c r="I18">
-        <v>0.1526734352814043</v>
+        <v>0.05016839520901126</v>
       </c>
       <c r="J18">
-        <v>0.1072398488976927</v>
+        <v>0.0340144129770187</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>3.630605</v>
       </c>
       <c r="O18">
-        <v>0.3362090468038446</v>
+        <v>0.5425629886502931</v>
       </c>
       <c r="P18">
-        <v>0.4031154633417589</v>
+        <v>0.5714882742434749</v>
       </c>
       <c r="Q18">
-        <v>0.9802802928233333</v>
+        <v>0.2089292157333333</v>
       </c>
       <c r="R18">
-        <v>5.88168175694</v>
+        <v>1.2535752944</v>
       </c>
       <c r="S18">
-        <v>0.05133019014822941</v>
+        <v>0.02721951444039019</v>
       </c>
       <c r="T18">
-        <v>0.0432300413770936</v>
+        <v>0.01943883817164128</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.810014</v>
+        <v>0.17264</v>
       </c>
       <c r="H19">
-        <v>1.620028</v>
+        <v>0.34528</v>
       </c>
       <c r="I19">
-        <v>0.1526734352814043</v>
+        <v>0.05016839520901126</v>
       </c>
       <c r="J19">
-        <v>0.1072398488976927</v>
+        <v>0.0340144129770187</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -1612,28 +1612,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.167083</v>
+        <v>0.1427166666666667</v>
       </c>
       <c r="N19">
-        <v>0.5012489999999999</v>
+        <v>0.42815</v>
       </c>
       <c r="O19">
-        <v>0.04641773161811331</v>
+        <v>0.06398337015197826</v>
       </c>
       <c r="P19">
-        <v>0.05565497289972147</v>
+        <v>0.06739447133944447</v>
       </c>
       <c r="Q19">
-        <v>0.135339569162</v>
+        <v>0.02463860533333334</v>
       </c>
       <c r="R19">
-        <v>0.8120374149719999</v>
+        <v>0.147831632</v>
       </c>
       <c r="S19">
-        <v>0.007086754544107619</v>
+        <v>0.0032099430005889</v>
       </c>
       <c r="T19">
-        <v>0.005968430884171313</v>
+        <v>0.002292383380507715</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.810014</v>
+        <v>0.17264</v>
       </c>
       <c r="H20">
-        <v>1.620028</v>
+        <v>0.34528</v>
       </c>
       <c r="I20">
-        <v>0.1526734352814043</v>
+        <v>0.05016839520901126</v>
       </c>
       <c r="J20">
-        <v>0.1072398488976927</v>
+        <v>0.0340144129770187</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.7922885</v>
+        <v>0.3386875</v>
       </c>
       <c r="N20">
-        <v>3.584577</v>
+        <v>0.6773750000000001</v>
       </c>
       <c r="O20">
-        <v>0.4979199953031181</v>
+        <v>0.15184188493529</v>
       </c>
       <c r="P20">
-        <v>0.3980048554550032</v>
+        <v>0.1066246175956001</v>
       </c>
       <c r="Q20">
-        <v>1.451778777039</v>
+        <v>0.05847101000000001</v>
       </c>
       <c r="R20">
-        <v>5.807115108156</v>
+        <v>0.23388404</v>
       </c>
       <c r="S20">
-        <v>0.07601915617822776</v>
+        <v>0.007617663692714841</v>
       </c>
       <c r="T20">
-        <v>0.04268198055954257</v>
+        <v>0.003626773776413438</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.810014</v>
+        <v>0.17264</v>
       </c>
       <c r="H21">
-        <v>1.620028</v>
+        <v>0.34528</v>
       </c>
       <c r="I21">
-        <v>0.1526734352814043</v>
+        <v>0.05016839520901126</v>
       </c>
       <c r="J21">
-        <v>0.1072398488976927</v>
+        <v>0.0340144129770187</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.2445996666666667</v>
+        <v>0.3644293333333333</v>
       </c>
       <c r="N21">
-        <v>0.7337990000000001</v>
+        <v>1.093288</v>
       </c>
       <c r="O21">
-        <v>0.06795282393309501</v>
+        <v>0.1633825780374074</v>
       </c>
       <c r="P21">
-        <v>0.08147560086672039</v>
+        <v>0.1720928804899184</v>
       </c>
       <c r="Q21">
-        <v>0.1981291543953334</v>
+        <v>0.06291508010666667</v>
       </c>
       <c r="R21">
-        <v>1.188774926372</v>
+        <v>0.3774904806400001</v>
       </c>
       <c r="S21">
-        <v>0.01037459106693805</v>
+        <v>0.008196641745247779</v>
       </c>
       <c r="T21">
-        <v>0.008737431125795813</v>
+        <v>0.005853638307388808</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,46 +1780,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.01772166666666667</v>
+        <v>0.027201</v>
       </c>
       <c r="H22">
-        <v>0.053165</v>
+        <v>0.08160300000000001</v>
       </c>
       <c r="I22">
-        <v>0.003340223414548333</v>
+        <v>0.007904486318815542</v>
       </c>
       <c r="J22">
-        <v>0.003519325941678682</v>
+        <v>0.008038919549825236</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.1853783333333333</v>
+        <v>0.1744923333333333</v>
       </c>
       <c r="N22">
-        <v>0.5561349999999999</v>
+        <v>0.523477</v>
       </c>
       <c r="O22">
-        <v>0.05150040234182901</v>
+        <v>0.07822917822503123</v>
       </c>
       <c r="P22">
-        <v>0.06174910743679609</v>
+        <v>0.08239975633156223</v>
       </c>
       <c r="Q22">
-        <v>0.003285213030555555</v>
+        <v>0.004746365959000001</v>
       </c>
       <c r="R22">
-        <v>0.029566917275</v>
+        <v>0.04271729363100001</v>
       </c>
       <c r="S22">
-        <v>0.0001720228497608371</v>
+        <v>0.000618361469011942</v>
       </c>
       <c r="T22">
-        <v>0.0002173152356778205</v>
+        <v>0.0006624050120746314</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.01772166666666667</v>
+        <v>0.027201</v>
       </c>
       <c r="H23">
-        <v>0.053165</v>
+        <v>0.08160300000000001</v>
       </c>
       <c r="I23">
-        <v>0.003340223414548333</v>
+        <v>0.007904486318815542</v>
       </c>
       <c r="J23">
-        <v>0.003519325941678682</v>
+        <v>0.008038919549825236</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>3.630605</v>
       </c>
       <c r="O23">
-        <v>0.3362090468038446</v>
+        <v>0.5425629886502931</v>
       </c>
       <c r="P23">
-        <v>0.4031154633417589</v>
+        <v>0.5714882742434749</v>
       </c>
       <c r="Q23">
-        <v>0.02144679053611111</v>
+        <v>0.032918695535</v>
       </c>
       <c r="R23">
-        <v>0.193021114825</v>
+        <v>0.296268259815</v>
       </c>
       <c r="S23">
-        <v>0.001123013330317178</v>
+        <v>0.004288681720881914</v>
       </c>
       <c r="T23">
-        <v>0.001418694707630474</v>
+        <v>0.004594148260311757</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.01772166666666667</v>
+        <v>0.027201</v>
       </c>
       <c r="H24">
-        <v>0.053165</v>
+        <v>0.08160300000000001</v>
       </c>
       <c r="I24">
-        <v>0.003340223414548333</v>
+        <v>0.007904486318815542</v>
       </c>
       <c r="J24">
-        <v>0.003519325941678682</v>
+        <v>0.008038919549825236</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -1922,28 +1922,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.167083</v>
+        <v>0.1427166666666667</v>
       </c>
       <c r="N24">
-        <v>0.5012489999999999</v>
+        <v>0.42815</v>
       </c>
       <c r="O24">
-        <v>0.04641773161811331</v>
+        <v>0.06398337015197826</v>
       </c>
       <c r="P24">
-        <v>0.05565497289972147</v>
+        <v>0.06739447133944447</v>
       </c>
       <c r="Q24">
-        <v>0.002960989231666667</v>
+        <v>0.003882036050000001</v>
       </c>
       <c r="R24">
-        <v>0.02664890308499999</v>
+        <v>0.03493832445000001</v>
       </c>
       <c r="S24">
-        <v>0.0001550455940010426</v>
+        <v>0.0005057556739980229</v>
       </c>
       <c r="T24">
-        <v>0.0001958679899094138</v>
+        <v>0.0005417787332007967</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.01772166666666667</v>
+        <v>0.027201</v>
       </c>
       <c r="H25">
-        <v>0.053165</v>
+        <v>0.08160300000000001</v>
       </c>
       <c r="I25">
-        <v>0.003340223414548333</v>
+        <v>0.007904486318815542</v>
       </c>
       <c r="J25">
-        <v>0.003519325941678682</v>
+        <v>0.008038919549825236</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.7922885</v>
+        <v>0.3386875</v>
       </c>
       <c r="N25">
-        <v>3.584577</v>
+        <v>0.6773750000000001</v>
       </c>
       <c r="O25">
-        <v>0.4979199953031181</v>
+        <v>0.15184188493529</v>
       </c>
       <c r="P25">
-        <v>0.3980048554550032</v>
+        <v>0.1066246175956001</v>
       </c>
       <c r="Q25">
-        <v>0.0317623393675</v>
+        <v>0.009212638687500002</v>
       </c>
       <c r="R25">
-        <v>0.190574036205</v>
+        <v>0.05527583212500001</v>
       </c>
       <c r="S25">
-        <v>0.001663164026883271</v>
+        <v>0.001200232102094163</v>
       </c>
       <c r="T25">
-        <v>0.001400708812716867</v>
+        <v>0.0008571467228819099</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.01772166666666667</v>
+        <v>0.027201</v>
       </c>
       <c r="H26">
-        <v>0.053165</v>
+        <v>0.08160300000000001</v>
       </c>
       <c r="I26">
-        <v>0.003340223414548333</v>
+        <v>0.007904486318815542</v>
       </c>
       <c r="J26">
-        <v>0.003519325941678682</v>
+        <v>0.008038919549825236</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.2445996666666667</v>
+        <v>0.3644293333333333</v>
       </c>
       <c r="N26">
-        <v>0.7337990000000001</v>
+        <v>1.093288</v>
       </c>
       <c r="O26">
-        <v>0.06795282393309501</v>
+        <v>0.1633825780374074</v>
       </c>
       <c r="P26">
-        <v>0.08147560086672039</v>
+        <v>0.1720928804899184</v>
       </c>
       <c r="Q26">
-        <v>0.004334713759444444</v>
+        <v>0.009912842296</v>
       </c>
       <c r="R26">
-        <v>0.039012423835</v>
+        <v>0.08921558066400001</v>
       </c>
       <c r="S26">
-        <v>0.0002269776135860043</v>
+        <v>0.0012914553528295</v>
       </c>
       <c r="T26">
-        <v>0.0002867391957441072</v>
+        <v>0.001383440821356143</v>
       </c>
     </row>
   </sheetData>
